--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936648.3781855959</v>
+        <v>949051.3403463283</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>675902.9794415567</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.9794415572</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="E2" t="n">
         <v>188628.9044472749</v>
@@ -26424,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="F4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="G4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="H4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="I4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="J4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="K4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="L4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="M4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="N4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="O4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="P4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
     </row>
     <row r="5">
@@ -26525,43 +26527,43 @@
         <v>174659.4195098255</v>
       </c>
       <c r="D6" t="n">
-        <v>174659.419509826</v>
+        <v>174659.4195098256</v>
       </c>
       <c r="E6" t="n">
-        <v>-33855.43822591128</v>
+        <v>-34090.45166259314</v>
       </c>
       <c r="F6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
       <c r="G6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740693</v>
       </c>
       <c r="H6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
       <c r="I6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740693</v>
       </c>
       <c r="J6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
       <c r="K6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740693</v>
       </c>
       <c r="L6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
       <c r="M6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740693</v>
       </c>
       <c r="N6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
       <c r="O6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740693</v>
       </c>
       <c r="P6" t="n">
-        <v>99244.56177408878</v>
+        <v>99009.54833740694</v>
       </c>
     </row>
   </sheetData>
